--- a/실무_엑셀_예제_파일/Chapter02/02-008.xlsx
+++ b/실무_엑셀_예제_파일/Chapter02/02-008.xlsx
@@ -1,34 +1,24 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25225"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28623"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Dropbox\9. 내 드롭박스\@. #오빠두\@ 엑셀 - 영상강의\1g_진짜쓰는실무엑셀\촬영완\2-3-2 중복데이터 제한\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Github\excel\실무_엑셀_예제_파일\Chapter02\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{19BFB0E0-E9ED-4E7A-AD18-495B9C049415}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FF1F7A5C-61C3-445F-8E01-233C879A49DE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21390" xr2:uid="{F62E2216-14BD-4704-B93B-87367C4B1FAC}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="25820" windowHeight="15500" xr2:uid="{F62E2216-14BD-4704-B93B-87367C4B1FAC}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="191029"/>
+  <calcPr calcId="181029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
-    </ext>
-    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
-      <xcalcf:calcFeatures>
-        <xcalcf:feature name="microsoft.com:RD"/>
-        <xcalcf:feature name="microsoft.com:Single"/>
-        <xcalcf:feature name="microsoft.com:FV"/>
-        <xcalcf:feature name="microsoft.com:CNMTM"/>
-        <xcalcf:feature name="microsoft.com:LET_WF"/>
-        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
-      </xcalcf:calcFeatures>
     </ext>
   </extLst>
 </workbook>
@@ -293,10 +283,10 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+      <alignment horizontal="centerContinuous" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="centerContinuous" vertical="center"/>
+      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -614,33 +604,35 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{62B2B7AE-2C19-4DCD-AB66-25A7BFE39915}">
   <dimension ref="B1:H17"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0"/>
+    <sheetView tabSelected="1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+      <selection activeCell="B7" sqref="B7"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="17" x14ac:dyDescent="0.45"/>
   <cols>
-    <col min="1" max="1" width="6.375" customWidth="1"/>
+    <col min="1" max="1" width="6.33203125" customWidth="1"/>
     <col min="2" max="2" width="14.25" customWidth="1"/>
     <col min="3" max="3" width="13" customWidth="1"/>
-    <col min="4" max="4" width="16.125" customWidth="1"/>
-    <col min="6" max="6" width="13.875" customWidth="1"/>
+    <col min="4" max="4" width="16.08203125" customWidth="1"/>
+    <col min="6" max="6" width="13.83203125" customWidth="1"/>
     <col min="7" max="7" width="12.5" style="1" customWidth="1"/>
     <col min="8" max="8" width="15.75" style="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:8" ht="17.25" thickBot="1" x14ac:dyDescent="0.35"/>
-    <row r="2" spans="2:8" ht="22.9" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B2" s="7" t="s">
+    <row r="1" spans="2:8" ht="17.5" thickBot="1" x14ac:dyDescent="0.5"/>
+    <row r="2" spans="2:8" ht="22.9" customHeight="1" thickBot="1" x14ac:dyDescent="0.5">
+      <c r="B2" s="6" t="s">
         <v>43</v>
       </c>
-      <c r="C2" s="7"/>
-      <c r="D2" s="7"/>
-      <c r="F2" s="6" t="s">
+      <c r="C2" s="6"/>
+      <c r="D2" s="6"/>
+      <c r="F2" s="7" t="s">
         <v>3</v>
       </c>
-      <c r="G2" s="6"/>
-      <c r="H2" s="6"/>
-    </row>
-    <row r="4" spans="2:8" x14ac:dyDescent="0.3">
+      <c r="G2" s="7"/>
+      <c r="H2" s="7"/>
+    </row>
+    <row r="4" spans="2:8" x14ac:dyDescent="0.45">
       <c r="B4" s="2" t="s">
         <v>0</v>
       </c>
@@ -660,7 +652,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="5" spans="2:8" x14ac:dyDescent="0.3">
+    <row r="5" spans="2:8" x14ac:dyDescent="0.45">
       <c r="B5" s="5" t="s">
         <v>44</v>
       </c>
@@ -682,7 +674,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="6" spans="2:8" x14ac:dyDescent="0.3">
+    <row r="6" spans="2:8" x14ac:dyDescent="0.45">
       <c r="B6" s="5" t="s">
         <v>45</v>
       </c>
@@ -704,7 +696,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="7" spans="2:8" x14ac:dyDescent="0.3">
+    <row r="7" spans="2:8" x14ac:dyDescent="0.45">
       <c r="B7" s="5"/>
       <c r="C7" s="5" t="str">
         <f t="shared" si="0"/>
@@ -724,7 +716,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="8" spans="2:8" x14ac:dyDescent="0.3">
+    <row r="8" spans="2:8" x14ac:dyDescent="0.45">
       <c r="B8" s="5"/>
       <c r="C8" s="5" t="str">
         <f t="shared" si="0"/>
@@ -744,7 +736,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="9" spans="2:8" x14ac:dyDescent="0.3">
+    <row r="9" spans="2:8" x14ac:dyDescent="0.45">
       <c r="B9" s="5"/>
       <c r="C9" s="5" t="str">
         <f t="shared" si="0"/>
@@ -764,7 +756,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="10" spans="2:8" x14ac:dyDescent="0.3">
+    <row r="10" spans="2:8" x14ac:dyDescent="0.45">
       <c r="B10" s="5"/>
       <c r="C10" s="5" t="str">
         <f t="shared" si="0"/>
@@ -784,7 +776,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="11" spans="2:8" x14ac:dyDescent="0.3">
+    <row r="11" spans="2:8" x14ac:dyDescent="0.45">
       <c r="B11" s="5"/>
       <c r="C11" s="5" t="str">
         <f t="shared" si="0"/>
@@ -804,7 +796,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="12" spans="2:8" x14ac:dyDescent="0.3">
+    <row r="12" spans="2:8" x14ac:dyDescent="0.45">
       <c r="B12" s="5"/>
       <c r="C12" s="5" t="str">
         <f t="shared" si="0"/>
@@ -824,7 +816,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="13" spans="2:8" x14ac:dyDescent="0.3">
+    <row r="13" spans="2:8" x14ac:dyDescent="0.45">
       <c r="B13" s="5"/>
       <c r="C13" s="5" t="str">
         <f t="shared" si="0"/>
@@ -844,7 +836,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="14" spans="2:8" x14ac:dyDescent="0.3">
+    <row r="14" spans="2:8" x14ac:dyDescent="0.45">
       <c r="B14" s="5"/>
       <c r="C14" s="5" t="str">
         <f t="shared" si="0"/>
@@ -864,7 +856,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="15" spans="2:8" x14ac:dyDescent="0.3">
+    <row r="15" spans="2:8" x14ac:dyDescent="0.45">
       <c r="B15" s="5"/>
       <c r="C15" s="5" t="str">
         <f t="shared" si="0"/>
@@ -884,7 +876,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="16" spans="2:8" x14ac:dyDescent="0.3">
+    <row r="16" spans="2:8" x14ac:dyDescent="0.45">
       <c r="B16" s="5"/>
       <c r="C16" s="5" t="str">
         <f t="shared" si="0"/>
@@ -904,7 +896,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="17" spans="2:8" x14ac:dyDescent="0.3">
+    <row r="17" spans="2:8" x14ac:dyDescent="0.45">
       <c r="B17" s="4"/>
       <c r="C17" s="4"/>
       <c r="D17" s="4"/>
@@ -923,6 +915,11 @@
     <mergeCell ref="F2:H2"/>
   </mergeCells>
   <phoneticPr fontId="2" type="noConversion"/>
+  <dataValidations count="1">
+    <dataValidation type="custom" allowBlank="1" showInputMessage="1" showErrorMessage="1" errorTitle="이미 사용된 쿠폰번호" error="이미 사용한 쿠폰번호입니다. 쿠폰번호를 다시 확인하세요." sqref="B1:B1048576" xr:uid="{C7E888A5-CDF7-4784-8588-2A96E22468A3}">
+      <formula1>AND(COUNTIF($B:$B,B1)&lt;=1,COUNTIF($F:$F,B1)&gt;=1)</formula1>
+    </dataValidation>
+  </dataValidations>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>